--- a/data/trans_dic/P1434-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Dificultad-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03803806903693189</v>
+        <v>0.03724591167040914</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01804792516902423</v>
+        <v>0.01766805986656031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02146224143727401</v>
+        <v>0.02193307850639854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02526767926883748</v>
+        <v>0.02722460336419905</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07284508876175597</v>
+        <v>0.07466667911644079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03933173961375562</v>
+        <v>0.0392356383146492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04036207643110071</v>
+        <v>0.04290715685421257</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05801800664163871</v>
+        <v>0.05972147556056798</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02113696164280074</v>
+        <v>0.02085377471535014</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02444449937609127</v>
+        <v>0.02359360789482976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02058137154232777</v>
+        <v>0.01959878979696738</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05082701938599057</v>
+        <v>0.04959188466767845</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04124322765934684</v>
+        <v>0.04176791801031228</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0490115609191912</v>
+        <v>0.04889728809908854</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04185761595649598</v>
+        <v>0.04234010728368764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07699721701262961</v>
+        <v>0.07641894290743788</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01360971544348384</v>
+        <v>0.01382811113804474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02878559099863675</v>
+        <v>0.02921963747412836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02564607880312369</v>
+        <v>0.02592625142625386</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04982625224067753</v>
+        <v>0.05066283860024869</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03208992125868049</v>
+        <v>0.03082519953997302</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05827889141398831</v>
+        <v>0.05766413960086039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05058242433202421</v>
+        <v>0.0521129181081332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07540770832862995</v>
+        <v>0.07608904804125668</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01721453282058739</v>
+        <v>0.01846136222709576</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0287584589225549</v>
+        <v>0.02847208347122476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01592410526694171</v>
+        <v>0.01619141563523888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03905704801418777</v>
+        <v>0.03949199430929923</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05015369370021699</v>
+        <v>0.0546334926206926</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06890947805010651</v>
+        <v>0.06711197326187374</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04595972831696814</v>
+        <v>0.04592904191594187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06351953708924259</v>
+        <v>0.06461857974415672</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02639462235658873</v>
+        <v>0.0261370607796271</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02962810758611618</v>
+        <v>0.03041827706466978</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0257335397569799</v>
+        <v>0.02580557454161558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04932420756582147</v>
+        <v>0.04924892755112682</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03865098188869072</v>
+        <v>0.03853794382858407</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04324431299910664</v>
+        <v>0.04381783102247949</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03771226618699852</v>
+        <v>0.03740893523570995</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06380255408505654</v>
+        <v>0.06356238116075874</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22220</v>
+        <v>21757</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18841</v>
+        <v>18444</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24209</v>
+        <v>24740</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12518</v>
+        <v>13487</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42552</v>
+        <v>43616</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41060</v>
+        <v>40959</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45528</v>
+        <v>48399</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28742</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22783</v>
+        <v>22478</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23884</v>
+        <v>23053</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18705</v>
+        <v>17812</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>48414</v>
+        <v>47238</v>
       </c>
     </row>
     <row r="11">
@@ -1150,16 +1150,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>44456</v>
+        <v>45021</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47888</v>
+        <v>47776</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38041</v>
+        <v>38480</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73342</v>
+        <v>72791</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15265</v>
+        <v>15510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>25479</v>
+        <v>25863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21126</v>
+        <v>21357</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52142</v>
+        <v>53018</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35992</v>
+        <v>34573</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51584</v>
+        <v>51039</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41668</v>
+        <v>42928</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>78913</v>
+        <v>79626</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7698</v>
+        <v>8256</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14403</v>
+        <v>14260</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8069</v>
+        <v>8204</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37782</v>
+        <v>38203</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22429</v>
+        <v>24432</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34512</v>
+        <v>33612</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23288</v>
+        <v>23272</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>61447</v>
+        <v>62510</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>85277</v>
+        <v>84444</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>100942</v>
+        <v>103634</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>86652</v>
+        <v>86895</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>170749</v>
+        <v>170488</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>124875</v>
+        <v>124510</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>147331</v>
+        <v>149285</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>126988</v>
+        <v>125966</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>220870</v>
+        <v>220038</v>
       </c>
     </row>
     <row r="24">
